--- a/Github_files_content_explained.xlsx
+++ b/Github_files_content_explained.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scbui\OneDrive\Documents\Master_BMS_PSN\Research_project_2_Unravel\Python\Scriptie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD71BCE-8699-4C4B-AA89-4C2510975D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A2FBC6-FB59-4D22-8679-4474080BCAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7D343F88-53DC-4ECB-9F05-0DFC24A2247D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>File</t>
   </si>
@@ -130,6 +130,21 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Schematics</t>
+  </si>
+  <si>
+    <t>pipelines2.0.pptx</t>
+  </si>
+  <si>
+    <t>Pipelines.pptx</t>
+  </si>
+  <si>
+    <t>Powerpoint sheet visualizing the preprocessing pipeline</t>
+  </si>
+  <si>
+    <t>Powerpoint sheet visualizing the modelling pipeline</t>
   </si>
 </sst>
 </file>
@@ -499,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E5335D-BBDD-4CB7-B441-D4339A64D71B}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,6 +674,27 @@
         <v>30</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
